--- a/BiblioParsing/BiblioParsing_RefFiles/Country_towns.xlsx
+++ b/BiblioParsing/BiblioParsing_RefFiles/Country_towns.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amal/My_Jupyter/BiblioAnalysis/BiblioAnalysis_Utils/BiblioAnalysis_RefFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC265100\PyVenv\BiblioParsing\BiblioParsing\BiblioParsing_RefFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31614FE9-039B-CF4D-B63B-7C39C51D6805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16200" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Algeria" sheetId="1" r:id="rId1"/>
@@ -26,57 +25,58 @@
     <sheet name="Chile" sheetId="6" r:id="rId11"/>
     <sheet name="China" sheetId="7" r:id="rId12"/>
     <sheet name="Colombia" sheetId="47" r:id="rId13"/>
-    <sheet name="Cuba" sheetId="48" r:id="rId14"/>
-    <sheet name="Germany" sheetId="13" r:id="rId15"/>
-    <sheet name="Denmark" sheetId="8" r:id="rId16"/>
-    <sheet name="Ecuador" sheetId="9" r:id="rId17"/>
-    <sheet name="Egypt" sheetId="50" r:id="rId18"/>
-    <sheet name="Estonia" sheetId="10" r:id="rId19"/>
-    <sheet name="Finland" sheetId="11" r:id="rId20"/>
-    <sheet name="France" sheetId="12" r:id="rId21"/>
-    <sheet name="Greece" sheetId="14" r:id="rId22"/>
-    <sheet name="Hungary" sheetId="15" r:id="rId23"/>
-    <sheet name="India" sheetId="63" r:id="rId24"/>
-    <sheet name="Indonesia" sheetId="54" r:id="rId25"/>
-    <sheet name="Iran" sheetId="55" r:id="rId26"/>
-    <sheet name="Ireland" sheetId="56" r:id="rId27"/>
-    <sheet name="Israel" sheetId="17" r:id="rId28"/>
-    <sheet name="Italy" sheetId="18" r:id="rId29"/>
-    <sheet name="Japan" sheetId="19" r:id="rId30"/>
-    <sheet name="Latvia" sheetId="51" r:id="rId31"/>
-    <sheet name="Lebanon" sheetId="20" r:id="rId32"/>
-    <sheet name="Lithuania" sheetId="21" r:id="rId33"/>
-    <sheet name="Luxembourg" sheetId="22" r:id="rId34"/>
-    <sheet name="Mexico" sheetId="23" r:id="rId35"/>
-    <sheet name="Morocco" sheetId="24" r:id="rId36"/>
-    <sheet name="Netherlands" sheetId="25" r:id="rId37"/>
-    <sheet name="Norway" sheetId="26" r:id="rId38"/>
-    <sheet name="Pakistan" sheetId="27" r:id="rId39"/>
-    <sheet name="Peru" sheetId="57" r:id="rId40"/>
-    <sheet name="Poland" sheetId="28" r:id="rId41"/>
-    <sheet name="Portugal" sheetId="29" r:id="rId42"/>
-    <sheet name="Qatar" sheetId="58" r:id="rId43"/>
-    <sheet name="Romania" sheetId="30" r:id="rId44"/>
-    <sheet name="Russian Federation" sheetId="31" r:id="rId45"/>
-    <sheet name="Saudi Arabia" sheetId="59" r:id="rId46"/>
-    <sheet name="Singapore" sheetId="32" r:id="rId47"/>
-    <sheet name="Slovenia" sheetId="33" r:id="rId48"/>
-    <sheet name="South Korea" sheetId="60" r:id="rId49"/>
-    <sheet name="Spain" sheetId="34" r:id="rId50"/>
-    <sheet name="Sri Lanka" sheetId="35" r:id="rId51"/>
-    <sheet name="Sweden" sheetId="36" r:id="rId52"/>
-    <sheet name="Switzerland" sheetId="37" r:id="rId53"/>
-    <sheet name="Taiwan" sheetId="38" r:id="rId54"/>
-    <sheet name="Thailand" sheetId="39" r:id="rId55"/>
-    <sheet name="Togo" sheetId="61" r:id="rId56"/>
-    <sheet name="Tunisia" sheetId="40" r:id="rId57"/>
-    <sheet name="Turkey" sheetId="41" r:id="rId58"/>
-    <sheet name="United Arab Emirates" sheetId="62" r:id="rId59"/>
-    <sheet name="United Kingdom" sheetId="45" r:id="rId60"/>
-    <sheet name="United States" sheetId="44" r:id="rId61"/>
-    <sheet name="Viet Nam" sheetId="42" r:id="rId62"/>
+    <sheet name="Cote d'Ivoire" sheetId="64" r:id="rId14"/>
+    <sheet name="Cuba" sheetId="48" r:id="rId15"/>
+    <sheet name="Germany" sheetId="13" r:id="rId16"/>
+    <sheet name="Denmark" sheetId="8" r:id="rId17"/>
+    <sheet name="Ecuador" sheetId="9" r:id="rId18"/>
+    <sheet name="Egypt" sheetId="50" r:id="rId19"/>
+    <sheet name="Estonia" sheetId="10" r:id="rId20"/>
+    <sheet name="Finland" sheetId="11" r:id="rId21"/>
+    <sheet name="France" sheetId="12" r:id="rId22"/>
+    <sheet name="Greece" sheetId="14" r:id="rId23"/>
+    <sheet name="Hungary" sheetId="15" r:id="rId24"/>
+    <sheet name="India" sheetId="63" r:id="rId25"/>
+    <sheet name="Indonesia" sheetId="54" r:id="rId26"/>
+    <sheet name="Iran" sheetId="55" r:id="rId27"/>
+    <sheet name="Ireland" sheetId="56" r:id="rId28"/>
+    <sheet name="Israel" sheetId="17" r:id="rId29"/>
+    <sheet name="Italy" sheetId="18" r:id="rId30"/>
+    <sheet name="Japan" sheetId="19" r:id="rId31"/>
+    <sheet name="Latvia" sheetId="51" r:id="rId32"/>
+    <sheet name="Lebanon" sheetId="20" r:id="rId33"/>
+    <sheet name="Lithuania" sheetId="21" r:id="rId34"/>
+    <sheet name="Luxembourg" sheetId="22" r:id="rId35"/>
+    <sheet name="Mexico" sheetId="23" r:id="rId36"/>
+    <sheet name="Morocco" sheetId="24" r:id="rId37"/>
+    <sheet name="Netherlands" sheetId="25" r:id="rId38"/>
+    <sheet name="Norway" sheetId="26" r:id="rId39"/>
+    <sheet name="Pakistan" sheetId="27" r:id="rId40"/>
+    <sheet name="Peru" sheetId="57" r:id="rId41"/>
+    <sheet name="Poland" sheetId="28" r:id="rId42"/>
+    <sheet name="Portugal" sheetId="29" r:id="rId43"/>
+    <sheet name="Qatar" sheetId="58" r:id="rId44"/>
+    <sheet name="Romania" sheetId="30" r:id="rId45"/>
+    <sheet name="Russian Federation" sheetId="31" r:id="rId46"/>
+    <sheet name="Saudi Arabia" sheetId="59" r:id="rId47"/>
+    <sheet name="Singapore" sheetId="32" r:id="rId48"/>
+    <sheet name="Slovenia" sheetId="33" r:id="rId49"/>
+    <sheet name="South Korea" sheetId="60" r:id="rId50"/>
+    <sheet name="Spain" sheetId="34" r:id="rId51"/>
+    <sheet name="Sri Lanka" sheetId="35" r:id="rId52"/>
+    <sheet name="Sweden" sheetId="36" r:id="rId53"/>
+    <sheet name="Switzerland" sheetId="37" r:id="rId54"/>
+    <sheet name="Taiwan" sheetId="38" r:id="rId55"/>
+    <sheet name="Thailand" sheetId="39" r:id="rId56"/>
+    <sheet name="Togo" sheetId="61" r:id="rId57"/>
+    <sheet name="Tunisia" sheetId="40" r:id="rId58"/>
+    <sheet name="Turkey" sheetId="41" r:id="rId59"/>
+    <sheet name="United Arab Emirates" sheetId="62" r:id="rId60"/>
+    <sheet name="United Kingdom" sheetId="45" r:id="rId61"/>
+    <sheet name="United States" sheetId="44" r:id="rId62"/>
+    <sheet name="Viet Nam" sheetId="42" r:id="rId63"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="759">
   <si>
     <t>Town name</t>
   </si>
@@ -2340,12 +2340,39 @@
   </si>
   <si>
     <t>Saint Aubin</t>
+  </si>
+  <si>
+    <t>Ningbo</t>
+  </si>
+  <si>
+    <t>Tarbes</t>
+  </si>
+  <si>
+    <t>Bruz</t>
+  </si>
+  <si>
+    <t>Cadarache</t>
+  </si>
+  <si>
+    <t>La Motte d Aveillans</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>Abidjan</t>
+  </si>
+  <si>
+    <t>Yamoussoukro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2763,45 +2790,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
+  <sortState ref="A2:A5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2809,26 +2836,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7104160-877E-43DE-B36B-3A247C8C727E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>485</v>
       </c>
@@ -2839,44 +2866,44 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2887,112 +2914,117 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>536</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A30">
+  <sortState ref="A2:A30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3000,45 +3032,43 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986C7F02-41EB-45AC-9F83-4452521C2E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
+  <sortState ref="A2:A5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3046,29 +3076,67 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B760D18-6966-43E9-B12C-E8D5C426A7D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -3078,321 +3146,321 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>710</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A64">
+  <sortState ref="A2:A64">
     <sortCondition ref="A48:A64"/>
   </sortState>
   <conditionalFormatting sqref="A65:A1048576 A1:A60">
@@ -3402,106 +3470,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>587</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+  <sortState ref="A2:A12">
     <sortCondition ref="A1:A12"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3511,22 +3579,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4C97EF-E765-4566-90F3-99CD6EF5D95A}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>487</v>
       </c>
@@ -3537,22 +3605,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -3562,82 +3665,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E40435C-7644-41AC-AFEA-E9ADC438417B}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3647,1081 +3715,1101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:A212"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    <row r="68" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
+    <row r="174" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>601</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A212">
+  <sortState ref="A2:A212">
     <sortCondition ref="A212"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4729,45 +4817,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>718</v>
       </c>
@@ -4777,27 +4865,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -4807,121 +4895,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AE5A3E-15FC-4F4E-961B-B5FA59B824C6}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>720</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A15">
+  <sortState ref="A2:A15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975C8394-8B12-4904-88D9-601FE25E54C9}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -4931,27 +5019,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99581A32-025B-4A45-873A-B3C662171133}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>547</v>
       </c>
@@ -4961,335 +5049,386 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF9F1A7-3EF8-4E7B-96C9-CA0A298A01FF}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>549</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
+  <sortState ref="A2:A6">
     <sortCondition ref="A1:A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>740</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
+  <sortState ref="A2:A10">
     <sortCondition ref="A1:A10"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>552</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A40">
+  <sortState ref="A2:A40">
     <sortCondition ref="A10:A40"/>
   </sortState>
   <conditionalFormatting sqref="A41:A1048576 A1:A39">
@@ -5299,179 +5438,128 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21846CA9-9152-41BD-90B1-F95754FE271F}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
-    <sortCondition ref="A1:A6"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A17">
+  <sortState ref="A2:A17">
     <sortCondition ref="A1:A17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D04964-37C5-4F40-B28A-666568100A71}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>488</v>
       </c>
@@ -5481,101 +5569,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
+  <sortState ref="A2:A10">
     <sortCondition ref="A1:A10"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5584,26 +5649,21 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5612,31 +5672,26 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5645,183 +5700,274 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A17">
+  <sortState ref="A2:A17">
     <sortCondition ref="A4:A17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
+  <sortState ref="A2:A7">
     <sortCondition ref="A1:A7"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -5831,80 +5977,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D07B0B5-0EDA-4E41-B97C-00491F24ED64}">
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>558</v>
       </c>
@@ -5914,42 +6002,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -5959,27 +6047,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -5989,22 +6077,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8531AE9-E0D8-49F9-9678-6712D94A4B87}">
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>559</v>
       </c>
@@ -6014,45 +6102,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>614</v>
       </c>
@@ -6062,78 +6150,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>615</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
+  <sortState ref="A2:A7">
     <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40CB3C5-9379-451D-9759-D5EDDC08F46A}">
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>561</v>
       </c>
@@ -6143,20 +6231,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>215</v>
       </c>
@@ -6166,27 +6254,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -6196,167 +6284,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D190BF-CEC3-4D63-AB94-F6D780BC3A2B}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
+  <sortState ref="A2:A21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6364,74 +6409,117 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>598</v>
       </c>
@@ -6439,278 +6527,278 @@
         <v>623</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B66">
+  <sortState ref="A2:B66">
     <sortCondition ref="A41:A66"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -6720,222 +6808,222 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A8">
+  <sortState ref="A2:A8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>265</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A24">
+  <sortState ref="A2:A24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -6945,27 +7033,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -6975,286 +7063,248 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C9FC0F-4495-4D7C-9886-144B11464972}">
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>584</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
+  <sortState ref="A2:A5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>643</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
+  <sortState ref="A2:A5">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>276</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
+  <sortState ref="A2:A10">
     <sortCondition ref="A1:A10"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85BA8A8-EE22-409A-9CA4-F214CBFB490B}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
-    <sortCondition ref="A1:A4"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>522</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+  <sortState ref="A2:A14">
     <sortCondition ref="A1:A14"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7262,280 +7312,318 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8854253-96D1-498E-B85A-A9EA991E3BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A4">
+    <sortCondition ref="A1:A4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>655</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A53">
+  <sortState ref="A2:A53">
     <sortCondition ref="A1:A53"/>
   </sortState>
   <conditionalFormatting sqref="A1:A53 A55:A1048576">
@@ -7546,264 +7634,269 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255B01D3-4DE3-418A-B3FC-DA2B5477AA05}">
-  <dimension ref="A1:A41"/>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>352</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A42">
+  <sortState ref="A2:A42">
     <sortCondition ref="A19:A42"/>
   </sortState>
-  <conditionalFormatting sqref="A45:A1048576 A1:A42">
+  <conditionalFormatting sqref="A46:A1048576 A1:A43">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
+  <sortState ref="A2:A4">
     <sortCondition ref="A1:A4"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7811,21 +7904,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7836,24 +7929,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19785A6-1CA7-492A-8803-55930D61D6FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>478</v>
       </c>
@@ -7864,77 +7957,77 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B88CFE0-ACB4-4211-BA40-9E31E65F08A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
+  <sortState ref="A2:A11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
